--- a/biology/Zoologie/Eugnosta_parreyssiana/Eugnosta_parreyssiana.xlsx
+++ b/biology/Zoologie/Eugnosta_parreyssiana/Eugnosta_parreyssiana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eugnosta parreyssiana est une espèce européenne de lépidoptères (papillons) de la famille des Tortricidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les ailes antérieures de Eugnosta parreyssiana sont beaucoup plus courtes (6–9 mm) que celles de Eugnosta hydrargyrana (en) (12–14 mm). Les taches argentées de parreyssiana sont mineures, étroites, légèrement allongées et avec des bords arrondis, tandis que chez hydrargyrana, les taches sont grandes, larges et de forme compacte, étroitement disposées, avec les bords des taches voisines presque parallèles. Dans les organes génitaux mâles de parreyssiana, un cornutus est deux fois plus long que l'autre, tandis que pour hydrargyrana, les deux cornuti ont une longueur similaire. Les organes génitaux féminins de parreyssiana ont la partie proximale du stérigme plutôt petite, élancée et les sclérites du corps des bourses sont petites[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les ailes antérieures de Eugnosta parreyssiana sont beaucoup plus courtes (6–9 mm) que celles de Eugnosta hydrargyrana (en) (12–14 mm). Les taches argentées de parreyssiana sont mineures, étroites, légèrement allongées et avec des bords arrondis, tandis que chez hydrargyrana, les taches sont grandes, larges et de forme compacte, étroitement disposées, avec les bords des taches voisines presque parallèles. Dans les organes génitaux mâles de parreyssiana, un cornutus est deux fois plus long que l'autre, tandis que pour hydrargyrana, les deux cornuti ont une longueur similaire. Les organes génitaux féminins de parreyssiana ont la partie proximale du stérigme plutôt petite, élancée et les sclérites du corps des bourses sont petites.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On trouve Eugnosta parreyssiana en France, Allemagne, Autriche, Suisse, en Tchéquie, Slovaquie, Roumanie et en Russie[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On trouve Eugnosta parreyssiana en France, Allemagne, Autriche, Suisse, en Tchéquie, Slovaquie, Roumanie et en Russie.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La chenille se nourrit probablement de Jurinea cyanoides[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La chenille se nourrit probablement de Jurinea cyanoides.
 </t>
         </is>
       </c>
